--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,524 +512,714 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>77.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>260111</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>景顺长城公司治理混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007137</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏扬元合量化大盘优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007138</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬元合量化大盘优选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002256</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信行业优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007141</t>
+          <t>006424</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
+          <t>嘉合锦程价值精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.13</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007142</t>
+          <t>006265</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
+          <t>红土创新新科技股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.13</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006265</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红土创新新科技股票</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006424</t>
+          <t>006425</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合A</t>
+          <t>嘉合锦程价值精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>72.28</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006425</t>
+          <t>007141</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合C</t>
+          <t>嘉合稳健增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>72.28</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>007142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>嘉合稳健增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>673040</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>西部利得行业主题优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>97.97</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>673040</t>
+          <t>673043</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西部利得行业主题优选灵活配置混合A</t>
+          <t>西部利得行业主题优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>53.78</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>673043</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部利得行业主题优选灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,3404 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4914</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8617</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7942</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4569</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0723</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0213</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9928</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8696</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8635</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7848</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7387</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5400,4 +5401,2034 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3924</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1487</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1448</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7431,4 +7432,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7440,7 +7441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7451,17 +7452,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7471,14 +7492,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.16</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7487,14 +7530,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.79</v>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7503,14 +7568,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.69</v>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7519,13 +7606,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
         <v>5.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8447,7 +8448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8458,17 +8459,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8478,14 +8499,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.08</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8494,14 +8537,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.16</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8510,14 +8575,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.79</v>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8526,14 +8613,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.69</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>140.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8542,13 +8651,3435 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8893</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5519</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002227</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城新优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002228</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城新优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>19</v>
       </c>
       <c r="D6" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11962,7 +11963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11973,17 +11974,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11993,14 +12014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.2</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -12009,14 +12052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.08</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -12025,14 +12090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.16</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12041,14 +12128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.79</v>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -12057,14 +12166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.69</v>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -12073,13 +12204,4165 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6784</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6641</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5708</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9487</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6849</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011870</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
         <v>5.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>50.44</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>39.2</v>
+        <v>50.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>15.08</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>38.16</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>45.79</v>
+        <v>38.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>6.69</v>
+        <v>45.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>19</v>
       </c>
       <c r="D8" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
         <v>5.33</v>
       </c>
     </row>
@@ -600,6 +617,2112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4865,7 +6988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8379,7 +10502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9385,7 +11508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11415,7 +13538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14808,784 +16931,6 @@
       </c>
       <c r="H89" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8043</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0639</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7990</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3161</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006424</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1324</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>96.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006425</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1012</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007141</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007142</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>673040</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得行业主题优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>53.78</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>97.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>673043</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西部利得行业主题优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>53.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -15650,6 +16995,784 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>260101</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
+++ b/数据整理/stocks/A股/创业板/300568-星源材质.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>12.84</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>50.44</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D4" t="n">
-        <v>39.2</v>
+        <v>50.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>15.08</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>38.16</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>45.79</v>
+        <v>38.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>6.69</v>
+        <v>45.79</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,808 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>19</v>
       </c>
       <c r="D9" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1412,2750 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>017766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0916</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时创业板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏兴和混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2722,7 +6261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6988,7 +10527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10502,7 +14041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11508,7 +15047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13538,7 +17077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16931,784 +20470,6 @@
       </c>
       <c r="H89" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8043</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0639</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7990</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3161</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006424</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1324</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>96.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006425</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1012</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007141</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007142</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>673040</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得行业主题优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>53.78</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>97.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>673043</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西部利得行业主题优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>53.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -17773,36 +20534,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.86</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.26</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7562</t>
+          <t>1.8043</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -17811,36 +20572,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.11</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2157</t>
+          <t>1.6914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -17849,36 +20610,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.37</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1741</t>
+          <t>1.0639</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -17887,36 +20648,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3761</t>
+          <t>0.7990</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -17925,32 +20686,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006265</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红土创新新科技股票</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.3161</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -17963,32 +20724,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>006424</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>嘉合锦程价值精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>72.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1524</t>
+          <t>0.1748</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -18001,36 +20762,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>006265</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>红土创新新科技股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0997</t>
+          <t>0.1324</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -18039,36 +20800,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>96.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0987</t>
+          <t>0.1318</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -18077,36 +20838,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>006425</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>嘉合锦程价值精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>72.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.1012</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -18115,36 +20876,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>007141</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>嘉合稳健增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.0937</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -18153,36 +20914,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>82.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -18191,36 +20952,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>007142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>嘉合稳健增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -18229,36 +20990,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>673040</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>西部利得行业主题优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -18267,36 +21028,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007137</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票A</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>97.97</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -18305,36 +21066,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -18343,36 +21104,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007138</t>
+          <t>673043</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票C</t>
+          <t>西部利得行业主题优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -18381,36 +21142,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.83</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -18419,36 +21180,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -18457,36 +21218,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009317</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金信核心竞争力灵活配置混合</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
